--- a/output/Requisitos.xlsx
+++ b/output/Requisitos.xlsx
@@ -9,14 +9,13 @@
   <sheets>
     <sheet name="url1" sheetId="1" r:id="rId1"/>
     <sheet name="url2" sheetId="2" r:id="rId2"/>
-    <sheet name="url3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="317">
   <si>
     <t>Menú</t>
   </si>
@@ -48,34 +47,757 @@
     <t>organigrama</t>
   </si>
   <si>
-    <t>https://www.tunja-boyaca.gov.co/tema/alcaldia</t>
+    <t>mapas y cartas descriptivas de los procesos</t>
+  </si>
+  <si>
+    <t>directorio institucional</t>
+  </si>
+  <si>
+    <t>información de servidores públicos</t>
+  </si>
+  <si>
+    <t>directorio de entidades</t>
+  </si>
+  <si>
+    <t>directorio de asociaciones, agremiaciones</t>
+  </si>
+  <si>
+    <t>procedimientos que se siguen para tomar decisiones</t>
+  </si>
+  <si>
+    <t>mecanismos para presentar quejas y reclamos</t>
+  </si>
+  <si>
+    <t>calendario de actividades</t>
+  </si>
+  <si>
+    <t>decisiones que pueden afectar al público</t>
+  </si>
+  <si>
+    <t>autoridades que lo vigilan</t>
+  </si>
+  <si>
+    <t>publicación de hojas de vida</t>
+  </si>
+  <si>
+    <t>servicio al público, normas, formularios y protocolos de atención</t>
+  </si>
+  <si>
+    <t>normativa de la entidad</t>
+  </si>
+  <si>
+    <t>búsqueda de normas</t>
+  </si>
+  <si>
+    <t>proyectos de normas para comentarios</t>
+  </si>
+  <si>
+    <t>plan anual de adquisiciones</t>
+  </si>
+  <si>
+    <t>información contractual</t>
+  </si>
+  <si>
+    <t>ejecución de contratos</t>
+  </si>
+  <si>
+    <t>manual de contratación, adquisición y/o compras</t>
+  </si>
+  <si>
+    <t>formatos o modelos de contratos</t>
+  </si>
+  <si>
+    <t>presupuesto general</t>
+  </si>
+  <si>
+    <t>ejecución presupuestal</t>
+  </si>
+  <si>
+    <t>plan de acción</t>
+  </si>
+  <si>
+    <t>proyectos de inversión</t>
+  </si>
+  <si>
+    <t>informes de empalme</t>
+  </si>
+  <si>
+    <t>informes de gestión, evaluación y auditoría</t>
+  </si>
+  <si>
+    <t>informes de la oficina de control interno</t>
+  </si>
+  <si>
+    <t>informe sobre defensa pública y prevención del daño antijurídico</t>
+  </si>
+  <si>
+    <t>informes trimestrales sobre acceso a información, quejas y reclamos</t>
+  </si>
+  <si>
+    <t>trámites y servicios</t>
+  </si>
+  <si>
+    <t>diagnóstico e identificación de problemas</t>
+  </si>
+  <si>
+    <t>consulta ciudadana</t>
+  </si>
+  <si>
+    <t>planeación y presupuesto participativo</t>
+  </si>
+  <si>
+    <t>control ciudadano</t>
+  </si>
+  <si>
+    <t>rendición de cuentas</t>
+  </si>
+  <si>
+    <t>instrumentos de gestión de la información</t>
+  </si>
+  <si>
+    <t>sección de datos abiertos</t>
+  </si>
+  <si>
+    <t>información para niños, niñas y adolescentes</t>
+  </si>
+  <si>
+    <t>información para mujeres</t>
+  </si>
+  <si>
+    <t>información adicional</t>
+  </si>
+  <si>
+    <t>procesos de recaudo de rentas locales</t>
+  </si>
+  <si>
+    <t>tarifas de liquidación del impuesto de industria y comercio</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/alcaldia/funciones-y-deberes</t>
   </si>
   <si>
     <t>https://www.tunja-boyaca.gov.co/alcaldia/organigrama</t>
   </si>
   <si>
-    <t>Alcaldía</t>
+    <t>https://www.tunja-boyaca.gov.co/tema/procesos-y-procedimientos</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/contactenos/</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/directorio-de-funcionarios</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/directorio-institucional</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/instancias-de-participacion-851568</t>
+  </si>
+  <si>
+    <t>http://sac2.gestionsecretariasdeeducacion.gov.co/app_Login/?sec=104</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/calendario-de-actividades</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/politicas-y-lineamientos</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/directorio-institucional/entes-de-control</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/ofertas-de-empleo</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/politicas-y-lineamientos/atencion-al-ciudadano</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/normatividad</t>
+  </si>
+  <si>
+    <t>https://www.suin-juriscol.gov.co/</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/planes/plan-anual-de-adquisiciones</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/contrataciones</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/ejecucion-de-contratos-176727</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/procesos-y-procedimientos/adquisicion-y-compras</t>
+  </si>
+  <si>
+    <t>https://colombiacompra.gov.co/tipo-de-documento/pliegos-tipo</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/presupuesto/presupuesto-general</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/presupuesto/ejecucion-presupuestal-historica-anual</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/planes/plan-de-accion</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/proyectos-en-ejecucion</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/control/informes-de-empalme</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/control/informes-de-gestion-evaluacion-y-auditoria</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/control/reportes-de-control-interno</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/control/informes-de-defensa-judicial</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/informe-de-pqr</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/tramites-y-servicios</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/diagnostico-e-identificacion-de-problemas</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/consulta-ciudadana</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/planeacion-presupuesto-participativo</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/control-ciudadano</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/planes/plan-de-participacion-ciudadana</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/control/instrumentos-de-gestion-de-la-informacion-publica</t>
+  </si>
+  <si>
+    <t>https://datos.gov.co/</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/ninos-ninas-adolescentes</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/poblacion-vulnerable/mujeres-885358</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/informacion-adicional</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/impuestos-846906</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/impuestos-846906/impuesto-ica</t>
+  </si>
+  <si>
+    <t>Funciones y deberes</t>
   </si>
   <si>
     <t>Organigrama</t>
   </si>
   <si>
+    <t xml:space="preserve">  Manual de Procesos y Procedimientos Alcaldía Mayor de Tunja 2018      </t>
+  </si>
+  <si>
+    <t>Mecanismos de contacto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Alejandro Rodríguez Ávila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina de apoyo -  Familias en Acción </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reglamento Interno del Comité Permanente de Estratificación Socioeconómica del municipio de Tunja 2022 </t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
+    <t xml:space="preserve">Jornada Interinstitucional de Servicios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manual de Cobro Coactivo Administrativo de la Secretaría de Tránsito y Transporte de Tunja 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personería de Tunja </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Oportunidad de generar ingresos! Personas con Discapacidad o Cuidadores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Plan Estratégico Atención al Ciudadano 2022 – 2023      </t>
+  </si>
+  <si>
+    <t>Resolución No. 0892 de 19 de octubre de 2022 - S.H - Impuestos - Por medio de la cual se concede una exención de impuesto predial a unos inmuebles...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consulte en el SECOP el Plan Anual de Adquisiciones - Alcaldía de Tunja       </t>
+  </si>
+  <si>
+    <t>CD-AMT12962022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Listado de ejecución de contratos Trimestre III 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Manual de Contratación e Interventoría de la Alcaldía de Tunja - 2018      </t>
+  </si>
+  <si>
+    <t>Presupuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ejecución Presupuestal de Ingresos y Gastos SEPTIEMBRE de 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Plan de Acción e integración de Planes Institucionales y Estratégicos MIPG 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ejecución de los Proyectos de Inversión corte Trimestre I – 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Informe del proceso integral de cierre exitoso de gobierno 2016-2019 del municipio de Tunja      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Informe al concejo       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Informes auditorías internas de Gestión Vigencia 2021 – Primer Ciclo      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Defensa Judicial - Informe Trimestre III 2022 sobre las demandas contra la entidad Alcaldía de Tunja      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Informe de gestión PQRDS radicadas a la Alcaldía de Tunja - Septiembre de 2022      </t>
+  </si>
+  <si>
+    <t>Impuesto predial unificado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construyamos juntos la asignación de Nomenclatura para Zona Rural </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segunda Mesa Pública del Programa de Alimentación Escolar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capacitación Veedurías Ciudadanas, Conformación y Funciones </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Plan de Participación Ciudadana 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Programa de gestión documental      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sitio Manguare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consejo Consultivo de Mujeres </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La modalidad 1.000 días para cambiar el mundo - ICBF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alivios tributarios frente al pago de las obligaciones en mora 2022 </t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>manual_de_funciones_y_deberes_alcaldia.p</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Organigrama Alcaldía Mayor de Tunja </t>
   </si>
   <si>
+    <t>Este documento contiene el Manual de Pro</t>
+  </si>
+  <si>
+    <t>Dirección: Calle 19 #9-95 Edificio Munic</t>
+  </si>
+  <si>
+    <t>Cargo: Secretario de Tránsito y Transpor</t>
+  </si>
+  <si>
+    <t>Responsable: Suyer Yanet Páez VelascoCor</t>
+  </si>
+  <si>
+    <t>Mediante Acta No. 09 de fecha 1 1 de ago</t>
+  </si>
+  <si>
+    <t>URL Externa</t>
+  </si>
+  <si>
+    <t>Resolución No. 0485 de 17 de marzo de 20</t>
+  </si>
+  <si>
+    <t>Tipo de control: De gestión y Disciplina</t>
+  </si>
+  <si>
+    <t>En alianza estratégica, la Alcaldía de T</t>
+  </si>
+  <si>
+    <t>La Alcaldía de Tunja tiene la responsabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolución No. 0892 de 19 de octubre de </t>
+  </si>
+  <si>
+    <t>Consulte en el SECOP el Plan Anual de Ad</t>
+  </si>
+  <si>
+    <t>st151 Prestación de servicios profesiona</t>
+  </si>
+  <si>
+    <t>En cumplimiento de la resolución 1519 de</t>
+  </si>
+  <si>
+    <t>Este documento se propone como una herra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De conformidad con lo establecido en la </t>
+  </si>
+  <si>
+    <t>De conformidad con lo dispuesto en el Ar</t>
+  </si>
+  <si>
+    <t>Según el Decreto Municipal No. 0291 “Por</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El avance de ejecución del vigente Plan </t>
+  </si>
+  <si>
+    <t>Atendiendo el rol de Evaluación y Seguim</t>
+  </si>
+  <si>
+    <t>Defensa Judicial - Informe Trimestre III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cumplimiento de la Ley 1712 de 2014, </t>
+  </si>
+  <si>
+    <t>Pago que todo propietario, poseedor o qu</t>
+  </si>
+  <si>
+    <t>Invitamos a los Líderes y Presidentes de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te invitamos a participar en la Segunda </t>
+  </si>
+  <si>
+    <t>Se justifica y resalta que el espacio de</t>
+  </si>
+  <si>
+    <t>Se siguen implementando acciones y activ</t>
+  </si>
+  <si>
+    <t>Brindar a la comunidad de espacios de pa</t>
+  </si>
+  <si>
+    <t>El Programa de Gestión Documental (POD),</t>
+  </si>
+  <si>
+    <t>Maguaré www.maguare.gov.co, es el portal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Consejo Consultivo de Mujeres es una </t>
+  </si>
+  <si>
+    <t>ICBF Regional Boyacá, a través de la Cor</t>
+  </si>
+  <si>
+    <t>Acuerdo Municipal No. 036 de 06 de septi</t>
+  </si>
+  <si>
+    <t>2019/11/20 11:05:03</t>
+  </si>
+  <si>
     <t>2020/09/07 11:04:38</t>
   </si>
   <si>
+    <t>agosto 21 2019, 2:49 pm</t>
+  </si>
+  <si>
+    <t>julio 8 2022, 6:36 pm</t>
+  </si>
+  <si>
+    <t>mayo 2 2022, 11:00 am</t>
+  </si>
+  <si>
+    <t>Hace 7 días</t>
+  </si>
+  <si>
+    <t>marzo 18 2022, 3:19 pm</t>
+  </si>
+  <si>
+    <t>enero 26 2022, 9:17 am</t>
+  </si>
+  <si>
+    <t>julio 26 2022, 9:15 am</t>
+  </si>
+  <si>
+    <t>febrero 21 2022, 9:33 am</t>
+  </si>
+  <si>
+    <t>Hace 2 días</t>
+  </si>
+  <si>
+    <t>septiembre 21 2022, 4:27 pm</t>
+  </si>
+  <si>
+    <t>Hace 6 días</t>
+  </si>
+  <si>
+    <t>Hace 5 días</t>
+  </si>
+  <si>
+    <t>septiembre 26 2018, 10:23 pm</t>
+  </si>
+  <si>
+    <t>enero 31 2022, 9:25 pm</t>
+  </si>
+  <si>
+    <t>junio 28 2022, 9:24 am</t>
+  </si>
+  <si>
+    <t>enero 2 2020, 5:10 pm</t>
+  </si>
+  <si>
+    <t>marzo 28 2022, 3:47 pm</t>
+  </si>
+  <si>
+    <t>octubre 4 2022, 11:23 am</t>
+  </si>
+  <si>
+    <t>octubre 6 2022, 5:08 pm</t>
+  </si>
+  <si>
+    <t>octubre 18 2022, 5:05 pm</t>
+  </si>
+  <si>
+    <t>Última modificación: octubre 13 2022, 11:28 am</t>
+  </si>
+  <si>
+    <t>septiembre 14 2022, 4:44 pm</t>
+  </si>
+  <si>
+    <t>octubre 12 2022, 9:55 am</t>
+  </si>
+  <si>
+    <t>febrero 17 2022, 5:19 pm</t>
+  </si>
+  <si>
+    <t>diciembre 15 2020, 5:25 pm</t>
+  </si>
+  <si>
+    <t>diciembre 14 2020, 9:21 am</t>
+  </si>
+  <si>
+    <t>febrero 2 2021, 11:06 am</t>
+  </si>
+  <si>
+    <t>septiembre 23 2022, 10:37 am</t>
+  </si>
+  <si>
+    <t>políticas, lineamientos y manuales</t>
+  </si>
+  <si>
     <t>http://www.castillalanueva-meta.gov.co/alcaldia/funciones-y-deberes</t>
   </si>
   <si>
     <t>http://www.castillalanueva-meta.gov.co/alcaldia/organigrama</t>
   </si>
   <si>
-    <t>Funciones y deberes</t>
+    <t>http://www.castillalanueva-meta.gov.co/tema/directorio-de-funcionarios</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/directorio-institucional</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/peticiones-quejas-reclamos</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/calendario-de-actividades</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/normatividad</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/directorio-institucional/entes-de-control</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/convocatorias/convocatoria-jefe-de-control-interno</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/politicas-y-lineamientos</t>
+  </si>
+  <si>
+    <t>https://www.sucop.gov.co/</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/planes/plan-anual-de-adquisiciones</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/contrataciones</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/ejecucion-de-contratos-176727</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/procesos-y-procedimientos/adquisicion-y-compras</t>
+  </si>
+  <si>
+    <t>https://www.colombiacompra.gov.co/documentos-tipo/documentos-tipo</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/presupuesto</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/presupuesto/ejecucion-presupuestal-historica-anual</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/planes/plan--anual-de-inversiones</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/proyectos-en-ejecucion</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/control/informes-de-empalme</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/control</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/control/reportes-de-control-interno</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/control/informes-de-defensa-judicial</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/informe-de-pqr</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/tramites-y-servicios</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/consulta-ciudadana</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/planeacion-presupuesto-participativo</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/control-ciudadano</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/rendicion-de-cuentas</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/datos-abiertos</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/ninos-ninas-adolescentes</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/estrategias-para-mujeres</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/normatividad/agente-retenedores-ica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLANCA AURORA ESPINOSA CASTRILLON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUIN-Juriscol  Sistema Único de Información Normativa </t>
+  </si>
+  <si>
+    <t>Realizar peticiones, quejas, reclamos, sugerencias y denuncias (PQRDS)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cronograma Ecobiblioteca Municipal </t>
+  </si>
+  <si>
+    <t>Normatividad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personería Municipal </t>
+  </si>
+  <si>
+    <t>Acuerdo 023 de 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Certificación uso del sitio Web      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PLAN ANUAL DE ADQUISICIÓN 2022      </t>
+  </si>
+  <si>
+    <t>LICITACIÓN PÚBLICA N° DACP-LP-012-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Relación Contratos Celebrados durante el mes de mayo de 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MANUAL DE CONTRATACION MUNICIPIO DE CASTILLA LA NUEVA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Informe de Ejecución Presupuestal 2021      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Plan Operativo Anual de Inversiones P.O.A.I 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  MATRIZ DE SEGUIMIENTO PLAN ANUAL DE INVERSIÓN      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Informe de Empalme 2019 - 2020      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Esquema de publicación de información      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Información rendida por parte del Municipio de Castilla la Nueva ante la Contaduría General de la Nación       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Informe De Procesos Judiciales En Contra De La Entidad 2022      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Informes sobre acceso a información, quejas y reclamos.      </t>
+  </si>
+  <si>
+    <t>TRÁMITES Y SERVICIOS EN LÍNEA - Alcaldía de Castilla La Nueva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parte 2 - Iniciativas y proyectos para el Capítulo independiente del Sistema General de Regalías del Municipio. </t>
+  </si>
+  <si>
+    <t>Planeación y presupuesto participativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PAT PARA LA ATENCIÓN ASISTENCIA Y REPARACIÓN INTEGRAL A LAS VICTIMAS      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INFORME DE GESTION 2021 DEPARTAMENTO ADMINISTRATIVO DE CONTRATACION PUBLICA      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mapa delimitación de las Veredas del Municipio Castilla La Nueva - Meta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facebook </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acuerdo 023 de 2019       </t>
+  </si>
+  <si>
+    <t>Resolución 275-2021 Agentes Retenedores ICA</t>
   </si>
   <si>
     <t>1-acuerdo-etico-institucional-2017.pdf</t>
@@ -84,28 +806,166 @@
     <t xml:space="preserve">  Organigrama De La Administración Munic</t>
   </si>
   <si>
+    <t>DEPEDENCIA: SUBDIRECCIÓN DE DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>Funciones: Es un mecanismo de organizaci</t>
+  </si>
+  <si>
+    <t>Responsable: JOSÉ ROBINSON CASTAÑO ECHEV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"POR EL CUAL SE ESTABLECE EL PROCESO DE </t>
+  </si>
+  <si>
+    <t>POR MEDIO DEL CUAL SE ADOPTA LA POLITICA</t>
+  </si>
+  <si>
+    <t>Certificación uso del sitio Web www.cast</t>
+  </si>
+  <si>
+    <t>Plan Anual De Adquisición 2022</t>
+  </si>
+  <si>
+    <t>OBJETO DEL CONTRATO: "SERVICIO DE VIGILA</t>
+  </si>
+  <si>
+    <t>En cumplimiento de lo establecido Artícu</t>
+  </si>
+  <si>
+    <t>Manual de contratación</t>
+  </si>
+  <si>
+    <t>Informe de Ejecución Presupuestal de ing</t>
+  </si>
+  <si>
+    <t>Instrumento de programación de la invers</t>
+  </si>
+  <si>
+    <t>Resumen de los proyectos en ejecución qu</t>
+  </si>
+  <si>
+    <t>Acta de informe de Gestión 2016 - 2019.</t>
+  </si>
+  <si>
+    <t>Descripción: A continuación se relaciona</t>
+  </si>
+  <si>
+    <t>https://www.chip.gov.co/schip_rt/index.j</t>
+  </si>
+  <si>
+    <t>A continuación, se relacionan los proces</t>
+  </si>
+  <si>
+    <t>El presente informe corresponde al segui</t>
+  </si>
+  <si>
+    <t>Accede a los trámites y servicios en lín</t>
+  </si>
+  <si>
+    <t>Parte 2 - Iniciativas y proyectos para e</t>
+  </si>
+  <si>
+    <t>PROYECTO FORMULACIÓN E IMPLEMENTACIÓN DE</t>
+  </si>
+  <si>
+    <t>El Departamento Administrativo de Contra</t>
+  </si>
+  <si>
+    <t>Límites geográficos de las veredas del m</t>
+  </si>
+  <si>
+    <t>#GrataVisita | La Administración Municip</t>
+  </si>
+  <si>
+    <t>resolucion-275--agentes-retenedores-ica.</t>
+  </si>
+  <si>
     <t>2022/09/23 16:24:15</t>
   </si>
   <si>
     <t>2021/07/27 18:16:18</t>
   </si>
   <si>
-    <t>https://www.santarosadecabal-risaralda.gov.co/alcaldia/funciones-y-deberes</t>
-  </si>
-  <si>
-    <t>https://www.santarosadecabal-risaralda.gov.co/alcaldia/organigrama</t>
-  </si>
-  <si>
-    <t>decreto-343-del-28-de-diciembre-de-2020.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Organigrama de la Alcaldía Municipal</t>
-  </si>
-  <si>
-    <t>2022/09/19 16:11:02</t>
-  </si>
-  <si>
-    <t>2022/09/19 16:11:11</t>
+    <t>abril 25 2022, 10:18 am</t>
+  </si>
+  <si>
+    <t>septiembre 29 2022, 11:35 am</t>
+  </si>
+  <si>
+    <t>septiembre 19 2022, 10:20 am</t>
+  </si>
+  <si>
+    <t>octubre 30 2020, 1:24 pm</t>
+  </si>
+  <si>
+    <t>diciembre 20 2021, 9:17 am</t>
+  </si>
+  <si>
+    <t>octubre 5 2022, 11:48 am</t>
+  </si>
+  <si>
+    <t>septiembre 30 2022, 9:50 am</t>
+  </si>
+  <si>
+    <t>febrero 21 2022, 8:40 am</t>
+  </si>
+  <si>
+    <t>septiembre 16 2022, 8:54 am</t>
+  </si>
+  <si>
+    <t>junio 7 2022, 4:34 pm</t>
+  </si>
+  <si>
+    <t>junio 6 2018, 3:40 pm</t>
+  </si>
+  <si>
+    <t>septiembre 28 2022, 3:08 pm</t>
+  </si>
+  <si>
+    <t>junio 10 2022, 8:13 am</t>
+  </si>
+  <si>
+    <t>septiembre 22 2022, 2:29 pm</t>
+  </si>
+  <si>
+    <t>noviembre 13 2020, 1:18 pm</t>
+  </si>
+  <si>
+    <t>Hace 34 minutos</t>
+  </si>
+  <si>
+    <t>septiembre 30 2022, 9:49 am</t>
+  </si>
+  <si>
+    <t>septiembre 28 2022, 4:20 pm</t>
+  </si>
+  <si>
+    <t>septiembre 28 2022, 2:54 pm</t>
+  </si>
+  <si>
+    <t>Última modificación: abril 18 2022, 11:48 am</t>
+  </si>
+  <si>
+    <t>septiembre 28 2022, 4:53 pm</t>
+  </si>
+  <si>
+    <t>septiembre 29 2022, 4:43 pm</t>
+  </si>
+  <si>
+    <t>noviembre 19 2021, 3:53 pm</t>
+  </si>
+  <si>
+    <t>agosto 12 2021, 9:17 am</t>
+  </si>
+  <si>
+    <t>septiembre 30 2022, 9:32 am</t>
+  </si>
+  <si>
+    <t>octubre 5 2022, 2:10 pm</t>
+  </si>
+  <si>
+    <t>2021/12/17 12:59:27</t>
   </si>
 </sst>
 </file>
@@ -476,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,19 +1376,19 @@
         <v>8</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -545,22 +1405,1156 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" t="s">
+        <v>149</v>
+      </c>
+      <c r="H25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" t="s">
+        <v>149</v>
+      </c>
+      <c r="H26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" t="s">
+        <v>152</v>
+      </c>
+      <c r="H29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>153</v>
+      </c>
+      <c r="H30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" t="s">
+        <v>156</v>
+      </c>
+      <c r="H33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G37" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G38" t="s">
+        <v>161</v>
+      </c>
+      <c r="H38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" t="s">
+        <v>139</v>
+      </c>
+      <c r="H40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" t="s">
+        <v>130</v>
+      </c>
+      <c r="G44" t="s">
+        <v>166</v>
+      </c>
+      <c r="H44" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
+        <v>101</v>
+      </c>
+      <c r="H45" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="E27" r:id="rId26"/>
+    <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E29" r:id="rId28"/>
+    <hyperlink ref="E30" r:id="rId29"/>
+    <hyperlink ref="E31" r:id="rId30"/>
+    <hyperlink ref="E32" r:id="rId31"/>
+    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E34" r:id="rId33"/>
+    <hyperlink ref="E35" r:id="rId34"/>
+    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E38" r:id="rId37"/>
+    <hyperlink ref="E39" r:id="rId38"/>
+    <hyperlink ref="E40" r:id="rId39"/>
+    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E42" r:id="rId41"/>
+    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -568,7 +2562,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,16 +2605,16 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>261</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -637,114 +2631,941 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G4" t="s">
+        <v>263</v>
+      </c>
+      <c r="H4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" t="s">
+        <v>265</v>
+      </c>
+      <c r="H9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" t="s">
+        <v>268</v>
+      </c>
+      <c r="H12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G17" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F20" t="s">
+        <v>244</v>
+      </c>
+      <c r="G20" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" t="s">
+        <v>245</v>
+      </c>
+      <c r="G22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" t="s">
+        <v>275</v>
+      </c>
+      <c r="H23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" t="s">
+        <v>276</v>
+      </c>
+      <c r="H24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G25" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" t="s">
+        <v>249</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F27" t="s">
+        <v>250</v>
+      </c>
+      <c r="G27" t="s">
+        <v>279</v>
+      </c>
+      <c r="H27" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>280</v>
+      </c>
+      <c r="H28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F29" t="s">
+        <v>252</v>
+      </c>
+      <c r="G29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>282</v>
+      </c>
+      <c r="H30" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>283</v>
+      </c>
+      <c r="H32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" t="s">
+        <v>258</v>
+      </c>
+      <c r="G35" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>267</v>
+      </c>
+      <c r="H36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F37" t="s">
+        <v>260</v>
+      </c>
+      <c r="G37" t="s">
+        <v>287</v>
+      </c>
+      <c r="H37" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="E9" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
+    <hyperlink ref="E11" r:id="rId10"/>
+    <hyperlink ref="E12" r:id="rId11"/>
+    <hyperlink ref="E13" r:id="rId12"/>
+    <hyperlink ref="E14" r:id="rId13"/>
+    <hyperlink ref="E15" r:id="rId14"/>
+    <hyperlink ref="E16" r:id="rId15"/>
+    <hyperlink ref="E17" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E19" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E21" r:id="rId20"/>
+    <hyperlink ref="E22" r:id="rId21"/>
+    <hyperlink ref="E23" r:id="rId22"/>
+    <hyperlink ref="E24" r:id="rId23"/>
+    <hyperlink ref="E25" r:id="rId24"/>
+    <hyperlink ref="E26" r:id="rId25"/>
+    <hyperlink ref="G26" r:id="rId26"/>
+    <hyperlink ref="E27" r:id="rId27"/>
+    <hyperlink ref="E28" r:id="rId28"/>
+    <hyperlink ref="E29" r:id="rId29"/>
+    <hyperlink ref="E30" r:id="rId30"/>
+    <hyperlink ref="E31" r:id="rId31"/>
+    <hyperlink ref="E32" r:id="rId32"/>
+    <hyperlink ref="E33" r:id="rId33"/>
+    <hyperlink ref="E34" r:id="rId34"/>
+    <hyperlink ref="E35" r:id="rId35"/>
+    <hyperlink ref="E36" r:id="rId36"/>
+    <hyperlink ref="E37" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/Requisitos.xlsx
+++ b/output/Requisitos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="343">
   <si>
     <t>Menú</t>
   </si>
@@ -41,6 +41,18 @@
     <t>transparencia</t>
   </si>
   <si>
+    <t>atención</t>
+  </si>
+  <si>
+    <t>participa</t>
+  </si>
+  <si>
+    <t>noticia</t>
+  </si>
+  <si>
+    <t>normatividad</t>
+  </si>
+  <si>
     <t>funciones y deberes</t>
   </si>
   <si>
@@ -173,6 +185,9 @@
     <t>tarifas de liquidación del impuesto de industria y comercio</t>
   </si>
   <si>
+    <t>noticias</t>
+  </si>
+  <si>
     <t>https://www.tunja-boyaca.gov.co/alcaldia/funciones-y-deberes</t>
   </si>
   <si>
@@ -299,6 +314,12 @@
     <t>https://www.tunja-boyaca.gov.co/tema/impuestos-846906/impuesto-ica</t>
   </si>
   <si>
+    <t>https://www.tunja-boyaca.gov.co/</t>
+  </si>
+  <si>
+    <t>https://www.tunja-boyaca.gov.co/tema/noticias</t>
+  </si>
+  <si>
     <t>Funciones y deberes</t>
   </si>
   <si>
@@ -317,13 +338,13 @@
     <t xml:space="preserve">Oficina de apoyo -  Familias en Acción </t>
   </si>
   <si>
-    <t xml:space="preserve">Reglamento Interno del Comité Permanente de Estratificación Socioeconómica del municipio de Tunja 2022 </t>
+    <t xml:space="preserve">Convocatoria vacancias Consejo Territorial de Planeación se declara desierta </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Jornada Interinstitucional de Servicios </t>
+    <t xml:space="preserve">Programación Semana del Buen Trato </t>
   </si>
   <si>
     <t xml:space="preserve">  Manual de Cobro Coactivo Administrativo de la Secretaría de Tránsito y Transporte de Tunja 2022      </t>
@@ -338,13 +359,13 @@
     <t xml:space="preserve">  Plan Estratégico Atención al Ciudadano 2022 – 2023      </t>
   </si>
   <si>
-    <t>Resolución No. 0892 de 19 de octubre de 2022 - S.H - Impuestos - Por medio de la cual se concede una exención de impuesto predial a unos inmuebles...</t>
+    <t>Decreto No. 0581 de 28 de octubre de 2022 - Por medio del cual, se decretan medidas con el fin de preservar el orden público, durante el día 31 de...</t>
   </si>
   <si>
     <t xml:space="preserve"> Consulte en el SECOP el Plan Anual de Adquisiciones - Alcaldía de Tunja       </t>
   </si>
   <si>
-    <t>CD-AMT12962022</t>
+    <t>SMC-AMT-0662022</t>
   </si>
   <si>
     <t xml:space="preserve">  Listado de ejecución de contratos Trimestre III 2022      </t>
@@ -353,7 +374,7 @@
     <t xml:space="preserve">  Manual de Contratación e Interventoría de la Alcaldía de Tunja - 2018      </t>
   </si>
   <si>
-    <t>Presupuesto</t>
+    <t xml:space="preserve">  Decreto No. 0528 de 29 de septiembre de 2022 - Por el cual se modifica el presupuesto de rentas y gastos del municipio de Tunja, para la vigencia...      </t>
   </si>
   <si>
     <t xml:space="preserve">  Ejecución Presupuestal de Ingresos y Gastos SEPTIEMBRE de 2022      </t>
@@ -383,7 +404,7 @@
     <t>Impuesto predial unificado</t>
   </si>
   <si>
-    <t xml:space="preserve">Construyamos juntos la asignación de Nomenclatura para Zona Rural </t>
+    <t xml:space="preserve">Primera Mesa Pública para la actualización de las Políticas Públicas </t>
   </si>
   <si>
     <t xml:space="preserve">Segunda Mesa Pública del Programa de Alimentación Escolar </t>
@@ -407,10 +428,13 @@
     <t xml:space="preserve">La modalidad 1.000 días para cambiar el mundo - ICBF </t>
   </si>
   <si>
-    <t xml:space="preserve">Alivios tributarios frente al pago de las obligaciones en mora 2022 </t>
-  </si>
-  <si>
-    <t>Impuestos</t>
+    <t xml:space="preserve">Descuento del 100% en intereses por mora, vigencias 2021 y anteriores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encuestadores de la Alcaldía de Tunja que están autorizados para visitar tu negocio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidos por la Seguridad de nuestros niños </t>
   </si>
   <si>
     <t>manual_de_funciones_y_deberes_alcaldia.p</t>
@@ -431,7 +455,7 @@
     <t>Responsable: Suyer Yanet Páez VelascoCor</t>
   </si>
   <si>
-    <t>Mediante Acta No. 09 de fecha 1 1 de ago</t>
+    <t xml:space="preserve">Resolución No. 0374 de 25 de octubre de </t>
   </si>
   <si>
     <t>URL Externa</t>
@@ -449,13 +473,13 @@
     <t>La Alcaldía de Tunja tiene la responsabi</t>
   </si>
   <si>
-    <t xml:space="preserve">Resolución No. 0892 de 19 de octubre de </t>
+    <t>Decreto No. 0581 de 28 de octubre de 202</t>
   </si>
   <si>
     <t>Consulte en el SECOP el Plan Anual de Ad</t>
   </si>
   <si>
-    <t>st151 Prestación de servicios profesiona</t>
+    <t xml:space="preserve">Apoyo logístico para la ejecución de la </t>
   </si>
   <si>
     <t>En cumplimiento de la resolución 1519 de</t>
@@ -464,6 +488,9 @@
     <t>Este documento se propone como una herra</t>
   </si>
   <si>
+    <t xml:space="preserve">Decreto No. 0528 de 29 de septiembre de </t>
+  </si>
+  <si>
     <t xml:space="preserve">De conformidad con lo establecido en la </t>
   </si>
   <si>
@@ -488,7 +515,7 @@
     <t>Pago que todo propietario, poseedor o qu</t>
   </si>
   <si>
-    <t>Invitamos a los Líderes y Presidentes de</t>
+    <t>Desarrollamos la Primera Mesa Pública pa</t>
   </si>
   <si>
     <t xml:space="preserve">Te invitamos a participar en la Segunda </t>
@@ -515,7 +542,19 @@
     <t>ICBF Regional Boyacá, a través de la Cor</t>
   </si>
   <si>
-    <t>Acuerdo Municipal No. 036 de 06 de septi</t>
+    <t>Si tienes deudas de 2021 y años anterior</t>
+  </si>
+  <si>
+    <t>Identifica a los encuestadores con el ob</t>
+  </si>
+  <si>
+    <t>Portal Pico &amp; CédulaInspecciones en líne</t>
+  </si>
+  <si>
+    <t>Instancias de ParticipaciónControl ciuda</t>
+  </si>
+  <si>
+    <t>Foto: Día de la Niñez. La Administración</t>
   </si>
   <si>
     <t>2019/11/20 11:05:03</t>
@@ -533,79 +572,97 @@
     <t>mayo 2 2022, 11:00 am</t>
   </si>
   <si>
+    <t>Hace 4 días</t>
+  </si>
+  <si>
+    <t>Hace 3 días</t>
+  </si>
+  <si>
+    <t>marzo 18 2022, 3:19 pm</t>
+  </si>
+  <si>
+    <t>enero 26 2022, 9:17 am</t>
+  </si>
+  <si>
+    <t>julio 26 2022, 9:15 am</t>
+  </si>
+  <si>
+    <t>febrero 21 2022, 9:33 am</t>
+  </si>
+  <si>
+    <t>Hace 18 horas</t>
+  </si>
+  <si>
+    <t>septiembre 21 2022, 4:27 pm</t>
+  </si>
+  <si>
+    <t>Hace 5 días</t>
+  </si>
+  <si>
+    <t>octubre 21 2022, 3:19 pm</t>
+  </si>
+  <si>
+    <t>septiembre 26 2018, 10:23 pm</t>
+  </si>
+  <si>
+    <t>octubre 5 2022, 3:29 pm</t>
+  </si>
+  <si>
+    <t>Hace 6 días</t>
+  </si>
+  <si>
+    <t>enero 31 2022, 9:25 pm</t>
+  </si>
+  <si>
+    <t>junio 28 2022, 9:24 am</t>
+  </si>
+  <si>
+    <t>enero 2 2020, 5:10 pm</t>
+  </si>
+  <si>
+    <t>marzo 28 2022, 3:47 pm</t>
+  </si>
+  <si>
+    <t>octubre 4 2022, 11:23 am</t>
+  </si>
+  <si>
+    <t>octubre 6 2022, 5:08 pm</t>
+  </si>
+  <si>
+    <t>octubre 18 2022, 5:05 pm</t>
+  </si>
+  <si>
+    <t>Última modificación: octubre 13 2022, 11:28 am</t>
+  </si>
+  <si>
+    <t>octubre 19 2022, 11:13 am</t>
+  </si>
+  <si>
+    <t>septiembre 14 2022, 4:44 pm</t>
+  </si>
+  <si>
+    <t>octubre 12 2022, 9:55 am</t>
+  </si>
+  <si>
+    <t>febrero 17 2022, 5:19 pm</t>
+  </si>
+  <si>
+    <t>diciembre 15 2020, 5:25 pm</t>
+  </si>
+  <si>
+    <t>diciembre 14 2020, 9:21 am</t>
+  </si>
+  <si>
+    <t>febrero 2 2021, 11:06 am</t>
+  </si>
+  <si>
     <t>Hace 7 días</t>
   </si>
   <si>
-    <t>marzo 18 2022, 3:19 pm</t>
-  </si>
-  <si>
-    <t>enero 26 2022, 9:17 am</t>
-  </si>
-  <si>
-    <t>julio 26 2022, 9:15 am</t>
-  </si>
-  <si>
-    <t>febrero 21 2022, 9:33 am</t>
-  </si>
-  <si>
-    <t>Hace 2 días</t>
-  </si>
-  <si>
-    <t>septiembre 21 2022, 4:27 pm</t>
-  </si>
-  <si>
-    <t>Hace 6 días</t>
-  </si>
-  <si>
-    <t>Hace 5 días</t>
-  </si>
-  <si>
-    <t>septiembre 26 2018, 10:23 pm</t>
-  </si>
-  <si>
-    <t>enero 31 2022, 9:25 pm</t>
-  </si>
-  <si>
-    <t>junio 28 2022, 9:24 am</t>
-  </si>
-  <si>
-    <t>enero 2 2020, 5:10 pm</t>
-  </si>
-  <si>
-    <t>marzo 28 2022, 3:47 pm</t>
-  </si>
-  <si>
-    <t>octubre 4 2022, 11:23 am</t>
-  </si>
-  <si>
-    <t>octubre 6 2022, 5:08 pm</t>
-  </si>
-  <si>
-    <t>octubre 18 2022, 5:05 pm</t>
-  </si>
-  <si>
-    <t>Última modificación: octubre 13 2022, 11:28 am</t>
-  </si>
-  <si>
-    <t>septiembre 14 2022, 4:44 pm</t>
-  </si>
-  <si>
-    <t>octubre 12 2022, 9:55 am</t>
-  </si>
-  <si>
-    <t>febrero 17 2022, 5:19 pm</t>
-  </si>
-  <si>
-    <t>diciembre 15 2020, 5:25 pm</t>
-  </si>
-  <si>
-    <t>diciembre 14 2020, 9:21 am</t>
-  </si>
-  <si>
-    <t>febrero 2 2021, 11:06 am</t>
-  </si>
-  <si>
-    <t>septiembre 23 2022, 10:37 am</t>
+    <t>agosto 16 2022, 9:28 am</t>
+  </si>
+  <si>
+    <t>Hace 6 horas</t>
   </si>
   <si>
     <t>políticas, lineamientos y manuales</t>
@@ -713,6 +770,12 @@
     <t>http://www.castillalanueva-meta.gov.co/normatividad/agente-retenedores-ica</t>
   </si>
   <si>
+    <t>http://www.castillalanueva-meta.gov.co/</t>
+  </si>
+  <si>
+    <t>http://www.castillalanueva-meta.gov.co/tema/noticias</t>
+  </si>
+  <si>
     <t xml:space="preserve">BLANCA AURORA ESPINOSA CASTRILLON </t>
   </si>
   <si>
@@ -731,7 +794,7 @@
     <t xml:space="preserve">Personería Municipal </t>
   </si>
   <si>
-    <t>Acuerdo 023 de 2019</t>
+    <t>RESOLUCIÓN No. 562 DE OCTUBRE 29 DE 2022</t>
   </si>
   <si>
     <t xml:space="preserve">  Certificación uso del sitio Web      </t>
@@ -800,6 +863,9 @@
     <t>Resolución 275-2021 Agentes Retenedores ICA</t>
   </si>
   <si>
+    <t xml:space="preserve">Diálogos Regionales Vinculantes para la construcción del Plan Nacional de Desarrollo 2022 - 2026. </t>
+  </si>
+  <si>
     <t>1-acuerdo-etico-institucional-2017.pdf</t>
   </si>
   <si>
@@ -818,69 +884,81 @@
     <t xml:space="preserve">"POR EL CUAL SE ESTABLECE EL PROCESO DE </t>
   </si>
   <si>
+    <t>“Por medio de la cual se da apertura a l</t>
+  </si>
+  <si>
+    <t>Certificación uso del sitio Web www.cast</t>
+  </si>
+  <si>
+    <t>Plan Anual De Adquisición 2022</t>
+  </si>
+  <si>
+    <t>OBJETO DEL CONTRATO: "SERVICIO DE VIGILA</t>
+  </si>
+  <si>
+    <t>En cumplimiento de lo establecido Artícu</t>
+  </si>
+  <si>
+    <t>Manual de contratación</t>
+  </si>
+  <si>
+    <t>Informe de Ejecución Presupuestal de ing</t>
+  </si>
+  <si>
+    <t>Instrumento de programación de la invers</t>
+  </si>
+  <si>
+    <t>Resumen de los proyectos en ejecución qu</t>
+  </si>
+  <si>
+    <t>Acta de informe de Gestión 2016 - 2019.</t>
+  </si>
+  <si>
+    <t>Descripción: A continuación se relaciona</t>
+  </si>
+  <si>
+    <t>https://www.chip.gov.co/schip_rt/index.j</t>
+  </si>
+  <si>
+    <t>A continuación, se relacionan los proces</t>
+  </si>
+  <si>
+    <t>El presente informe corresponde al segui</t>
+  </si>
+  <si>
+    <t>Accede a los trámites y servicios en lín</t>
+  </si>
+  <si>
+    <t>Parte 2 - Iniciativas y proyectos para e</t>
+  </si>
+  <si>
+    <t>PROYECTO FORMULACIÓN E IMPLEMENTACIÓN DE</t>
+  </si>
+  <si>
+    <t>El Departamento Administrativo de Contra</t>
+  </si>
+  <si>
+    <t>Límites geográficos de las veredas del m</t>
+  </si>
+  <si>
+    <t>#GrataVisita | La Administración Municip</t>
+  </si>
+  <si>
     <t>POR MEDIO DEL CUAL SE ADOPTA LA POLITICA</t>
   </si>
   <si>
-    <t>Certificación uso del sitio Web www.cast</t>
-  </si>
-  <si>
-    <t>Plan Anual De Adquisición 2022</t>
-  </si>
-  <si>
-    <t>OBJETO DEL CONTRATO: "SERVICIO DE VIGILA</t>
-  </si>
-  <si>
-    <t>En cumplimiento de lo establecido Artícu</t>
-  </si>
-  <si>
-    <t>Manual de contratación</t>
-  </si>
-  <si>
-    <t>Informe de Ejecución Presupuestal de ing</t>
-  </si>
-  <si>
-    <t>Instrumento de programación de la invers</t>
-  </si>
-  <si>
-    <t>Resumen de los proyectos en ejecución qu</t>
-  </si>
-  <si>
-    <t>Acta de informe de Gestión 2016 - 2019.</t>
-  </si>
-  <si>
-    <t>Descripción: A continuación se relaciona</t>
-  </si>
-  <si>
-    <t>https://www.chip.gov.co/schip_rt/index.j</t>
-  </si>
-  <si>
-    <t>A continuación, se relacionan los proces</t>
-  </si>
-  <si>
-    <t>El presente informe corresponde al segui</t>
-  </si>
-  <si>
-    <t>Accede a los trámites y servicios en lín</t>
-  </si>
-  <si>
-    <t>Parte 2 - Iniciativas y proyectos para e</t>
-  </si>
-  <si>
-    <t>PROYECTO FORMULACIÓN E IMPLEMENTACIÓN DE</t>
-  </si>
-  <si>
-    <t>El Departamento Administrativo de Contra</t>
-  </si>
-  <si>
-    <t>Límites geográficos de las veredas del m</t>
-  </si>
-  <si>
-    <t>#GrataVisita | La Administración Municip</t>
-  </si>
-  <si>
     <t>resolucion-275--agentes-retenedores-ica.</t>
   </si>
   <si>
+    <t xml:space="preserve">ConVerTicTrámites y serviciosMecanismos </t>
+  </si>
+  <si>
+    <t>Calendario de estrategia de participació</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#DiálogosRegionales | La Administración </t>
+  </si>
+  <si>
     <t>2022/09/23 16:24:15</t>
   </si>
   <si>
@@ -902,7 +980,7 @@
     <t>diciembre 20 2021, 9:17 am</t>
   </si>
   <si>
-    <t>octubre 5 2022, 11:48 am</t>
+    <t>Hace 43 minutos</t>
   </si>
   <si>
     <t>septiembre 30 2022, 9:50 am</t>
@@ -932,9 +1010,6 @@
     <t>noviembre 13 2020, 1:18 pm</t>
   </si>
   <si>
-    <t>Hace 34 minutos</t>
-  </si>
-  <si>
     <t>septiembre 30 2022, 9:49 am</t>
   </si>
   <si>
@@ -966,6 +1041,9 @@
   </si>
   <si>
     <t>2021/12/17 12:59:27</t>
+  </si>
+  <si>
+    <t>Hace 45 minutos</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1373,22 +1451,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1399,22 +1477,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1425,22 +1503,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1451,22 +1529,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="H5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1477,22 +1555,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1503,22 +1581,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="H7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1529,22 +1607,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1555,22 +1633,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1581,22 +1659,22 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1607,22 +1685,22 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1633,22 +1711,22 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1659,22 +1737,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="H13" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1685,22 +1763,22 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H14" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1711,22 +1789,22 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1737,22 +1815,22 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1763,22 +1841,22 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1789,22 +1867,22 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G18" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="H18" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1815,22 +1893,22 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="H19" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1841,22 +1919,22 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G20" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="H20" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1867,22 +1945,22 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="H21" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1893,22 +1971,22 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1919,22 +1997,22 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1945,22 +2023,22 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G24" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="H24" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1971,22 +2049,22 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H25" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1997,22 +2075,22 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F26" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="G26" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2023,22 +2101,22 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2049,22 +2127,22 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="H28" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2075,22 +2153,22 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G29" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2101,22 +2179,22 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G30" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2127,22 +2205,22 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D31" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G31" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H31" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2153,22 +2231,22 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G32" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H32" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2179,22 +2257,22 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F33" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G33" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2205,22 +2283,22 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G34" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2231,22 +2309,22 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G35" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="H35" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2257,22 +2335,22 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2283,22 +2361,22 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G37" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H37" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2309,22 +2387,22 @@
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G38" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="H38" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2335,22 +2413,22 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D39" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2361,22 +2439,22 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D40" t="b">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2387,22 +2465,22 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G41" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="H41" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2413,22 +2491,22 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F42" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G42" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="H42" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2439,22 +2517,22 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D43" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G43" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2465,22 +2543,22 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D44" t="b">
         <v>1</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G44" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2491,22 +2569,126 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G45" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="H45" t="s">
-        <v>101</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" t="s">
+        <v>177</v>
+      </c>
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" t="s">
+        <v>178</v>
+      </c>
+      <c r="H47" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F48" t="s">
+        <v>139</v>
+      </c>
+      <c r="G48" t="s">
+        <v>179</v>
+      </c>
+      <c r="H48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2555,6 +2737,10 @@
     <hyperlink ref="E43" r:id="rId42"/>
     <hyperlink ref="E44" r:id="rId43"/>
     <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E46" r:id="rId45"/>
+    <hyperlink ref="E47" r:id="rId46"/>
+    <hyperlink ref="E48" r:id="rId47"/>
+    <hyperlink ref="E49" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2562,7 +2748,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2599,22 +2785,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="H2" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2625,22 +2811,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2651,22 +2837,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2677,22 +2863,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="H5" t="s">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2703,22 +2889,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="F6" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2729,22 +2915,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2755,22 +2941,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2781,22 +2967,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="H9" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2807,22 +2993,22 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="H10" t="s">
-        <v>294</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2833,22 +3019,22 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="H11" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2859,22 +3045,22 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F12" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="H12" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2885,22 +3071,22 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2911,22 +3097,22 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2937,22 +3123,22 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="G15" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="H15" t="s">
-        <v>297</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2963,22 +3149,22 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="H16" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2989,22 +3175,22 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="F17" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="H17" t="s">
-        <v>299</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3015,22 +3201,22 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F18" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="H18" t="s">
-        <v>300</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3041,22 +3227,22 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3067,22 +3253,22 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="G20" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="H20" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3093,22 +3279,22 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F21" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="H21" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3119,22 +3305,22 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="F22" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G22" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="H22" t="s">
-        <v>302</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3145,22 +3331,22 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="F23" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="G23" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="H23" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3171,22 +3357,22 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F24" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="G24" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>304</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3197,22 +3383,22 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="H25" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3223,22 +3409,22 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="F26" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="H26" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3249,22 +3435,22 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="G27" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="H27" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3275,22 +3461,22 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="H28" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3301,22 +3487,22 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F29" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="H29" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3327,22 +3513,22 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D30" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="H30" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3353,22 +3539,22 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3379,22 +3565,22 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D32" t="b">
         <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="H32" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3405,22 +3591,22 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D33" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="H33" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3431,22 +3617,22 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="H34" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3457,22 +3643,22 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D35" t="b">
         <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F35" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="H35" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3483,22 +3669,22 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="G36" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="H36" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3509,22 +3695,126 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D37" t="b">
         <v>1</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F37" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="H37" t="s">
-        <v>316</v>
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F40" t="s">
+        <v>282</v>
+      </c>
+      <c r="G40" t="s">
+        <v>313</v>
+      </c>
+      <c r="H40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H41" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3566,6 +3856,10 @@
     <hyperlink ref="E35" r:id="rId35"/>
     <hyperlink ref="E36" r:id="rId36"/>
     <hyperlink ref="E37" r:id="rId37"/>
+    <hyperlink ref="E38" r:id="rId38"/>
+    <hyperlink ref="E39" r:id="rId39"/>
+    <hyperlink ref="E40" r:id="rId40"/>
+    <hyperlink ref="E41" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
